--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -87,6 +87,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -194,8 +195,8 @@
   </sheetPr>
   <dimension ref="A1:JJ1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AR1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BK1" activeCellId="0" sqref="BK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -195,8 +195,8 @@
   </sheetPr>
   <dimension ref="A1:JJ1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AR1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BK1" activeCellId="0" sqref="BK1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -233,13 +233,13 @@
         <v>1</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="0" t="n">
         <v>0</v>
@@ -251,13 +251,13 @@
         <v>0</v>
       </c>
       <c r="P1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S1" s="0" t="s">
         <v>3</v>
@@ -269,13 +269,13 @@
         <v>4</v>
       </c>
       <c r="V1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y1" s="2" t="n">
         <v>38426</v>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -195,8 +195,8 @@
   </sheetPr>
   <dimension ref="A1:JJ1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AV1" activeCellId="0" sqref="AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -340,11 +340,11 @@
       <c r="AT1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AU1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV1" s="0" t="s">
-        <v>5</v>
+      <c r="AU1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="2" t="n">
+        <v>39550</v>
       </c>
       <c r="AX1" s="0" t="n">
         <v>0</v>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -195,8 +195,8 @@
   </sheetPr>
   <dimension ref="A1:JJ1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AV1" activeCellId="0" sqref="AV1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CJ1" activeCellId="0" sqref="CJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="CJ1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK1" s="0" t="n">
         <v>0</v>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -892,7 +892,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="D\-MMM\-YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -928,6 +928,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -972,7 +978,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -993,18 +999,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1016,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="FM2" activeCellId="0" sqref="FM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4503,13 +4513,13 @@
         <v>282</v>
       </c>
       <c r="EG2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="EI2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ2" s="0" t="s">
         <v>283</v>
@@ -4586,7 +4596,7 @@
       <c r="FL2" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="FM2" s="0" t="n">
+      <c r="FM2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="FN2" s="0" t="n">
@@ -4745,7 +4755,7 @@
       <c r="HR2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HS2" s="5" t="n">
+      <c r="HS2" s="6" t="n">
         <v>38426</v>
       </c>
       <c r="HT2" s="2" t="s">
@@ -4841,13 +4851,13 @@
       <c r="IX2" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IY2" s="5" t="n">
+      <c r="IY2" s="6" t="n">
         <v>37901</v>
       </c>
       <c r="IZ2" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JA2" s="5" t="n">
+      <c r="JA2" s="6" t="n">
         <v>38302</v>
       </c>
       <c r="JB2" s="2" t="s">
@@ -4856,7 +4866,7 @@
       <c r="JC2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="JD2" s="5" t="n">
+      <c r="JD2" s="6" t="n">
         <v>38426</v>
       </c>
       <c r="JE2" s="2" t="s">
@@ -4868,13 +4878,13 @@
       <c r="JG2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JH2" s="5" t="n">
+      <c r="JH2" s="6" t="n">
         <v>37901</v>
       </c>
       <c r="JI2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JJ2" s="5" t="n">
+      <c r="JJ2" s="6" t="n">
         <v>38426</v>
       </c>
     </row>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -850,7 +850,7 @@
     <t xml:space="preserve">#NULL!</t>
   </si>
   <si>
-    <t xml:space="preserve">tel</t>
+    <t xml:space="preserve">TC</t>
   </si>
   <si>
     <t xml:space="preserve">cause of d. scompenso cardiaco</t>
@@ -892,7 +892,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="D\-MMM\-YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -928,12 +928,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -978,7 +972,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -996,10 +990,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1026,8 +1016,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="FM2" activeCellId="0" sqref="FM2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4596,7 +4586,7 @@
       <c r="FL2" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="FM2" s="5" t="n">
+      <c r="FM2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="FN2" s="0" t="n">
@@ -4755,7 +4745,7 @@
       <c r="HR2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="HS2" s="6" t="n">
+      <c r="HS2" s="5" t="n">
         <v>38426</v>
       </c>
       <c r="HT2" s="2" t="s">
@@ -4851,13 +4841,13 @@
       <c r="IX2" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IY2" s="6" t="n">
+      <c r="IY2" s="5" t="n">
         <v>37901</v>
       </c>
       <c r="IZ2" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JA2" s="6" t="n">
+      <c r="JA2" s="5" t="n">
         <v>38302</v>
       </c>
       <c r="JB2" s="2" t="s">
@@ -4866,7 +4856,7 @@
       <c r="JC2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="JD2" s="6" t="n">
+      <c r="JD2" s="5" t="n">
         <v>38426</v>
       </c>
       <c r="JE2" s="2" t="s">
@@ -4878,13 +4868,13 @@
       <c r="JG2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JH2" s="6" t="n">
+      <c r="JH2" s="5" t="n">
         <v>37901</v>
       </c>
       <c r="JI2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JJ2" s="6" t="n">
+      <c r="JJ2" s="5" t="n">
         <v>38426</v>
       </c>
     </row>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="288">
   <si>
     <t xml:space="preserve">IdPaziente</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t xml:space="preserve">dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
   <si>
     <t xml:space="preserve">DEATH  FOR insuf respiratoria.  occl.limb.</t>
@@ -999,12 +1002,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1016,8 +1019,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="FR2" activeCellId="0" sqref="FR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4601,6 +4604,9 @@
       <c r="FQ2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="FR2" s="0" t="s">
+        <v>284</v>
+      </c>
       <c r="FS2" s="0" t="n">
         <v>0</v>
       </c>
@@ -4653,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="GK2" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="GL2" s="0" t="n">
         <v>0</v>
@@ -4713,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="HI2" s="0" t="n">
         <v>49</v>
@@ -4860,7 +4866,7 @@
         <v>38426</v>
       </c>
       <c r="JE2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="JF2" s="2" t="n">
         <v>1</v>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="288">
   <si>
     <t xml:space="preserve">IdPaziente</t>
   </si>
@@ -1019,8 +1019,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="FR2" activeCellId="0" sqref="FR2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DB2" activeCellId="0" sqref="DB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4412,8 +4412,8 @@
       <c r="DA2" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="DB2" s="0" t="s">
-        <v>275</v>
+      <c r="DB2" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="DC2" s="0" t="n">
         <v>132</v>
